--- a/Leçon chimie/LC 24/LC24 (Expérience).xlsx
+++ b/Leçon chimie/LC 24/LC24 (Expérience).xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="0" windowWidth="25360" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Influence de T°C" sheetId="2" r:id="rId1"/>
+    <sheet name="Influence de T°C (2)" sheetId="4" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -20,9 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Influence de la température</t>
-  </si>
   <si>
     <t>Conductivité molaire ionique</t>
   </si>
@@ -95,9 +95,6 @@
     </r>
   </si>
   <si>
-    <t>Solubilité s (mol/m3)</t>
-  </si>
-  <si>
     <t>Constante de solubilité Ks</t>
   </si>
   <si>
@@ -107,20 +104,26 @@
     <t>ln(Ks)</t>
   </si>
   <si>
-    <t>∆</t>
-  </si>
-  <si>
     <t>∆rH° (kJ.K-1.mol-1)</t>
   </si>
   <si>
     <t xml:space="preserve">-∆rH°/R = -8417,4 </t>
+  </si>
+  <si>
+    <t>Solubilité s (mol/L)</t>
+  </si>
+  <si>
+    <t>pKs</t>
+  </si>
+  <si>
+    <t>Influence de la température sur l'équilibre Pb2+ +2I- = PbI2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,13 +179,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,19 +206,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -257,7 +240,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,9 +252,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -323,7 +312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Influence de T°C'!$F$7</c:f>
+              <c:f>'Influence de T°C (2)'!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -348,7 +337,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Influence de T°C'!$B$8:$B$11</c:f>
+              <c:f>'Influence de T°C (2)'!$B$8:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -369,21 +358,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Influence de T°C'!$F$8:$F$11</c:f>
+              <c:f>'Influence de T°C (2)'!$F$8:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-12.44020522012059</c:v>
+                  <c:v>-18.17106631300156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.5996051506434</c:v>
+                  <c:v>-17.33046624352436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.61180612656815</c:v>
+                  <c:v>-16.34266721944912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.80349562071299</c:v>
+                  <c:v>-15.53435671359395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,11 +387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138068104"/>
-        <c:axId val="-2117194056"/>
+        <c:axId val="2140726280"/>
+        <c:axId val="2140662728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2138068104"/>
+        <c:axId val="2140726280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,8 +408,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>1/T (K-1)</a:t>
+                  <a:t>1/T</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (K-1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -428,8 +422,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.822579932095644"/>
-              <c:y val="0.15047619047619"/>
+              <c:x val="0.803968792891714"/>
+              <c:y val="0.142857142857143"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -438,15 +432,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117194056"/>
+        <c:crossAx val="2140662728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117194056"/>
+        <c:axId val="2140662728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-8.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -474,7 +467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138068104"/>
+        <c:crossAx val="2140726280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -500,21 +493,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -529,6 +524,59 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Détermination Ka Acide éthanoïq"/>
+      <sheetName val="Influence de T°C"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>ln(Ks)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>3.4129692832764505E-3</v>
+          </cell>
+          <cell r="F8">
+            <v>-18.171066313001557</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>3.3003300330033004E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>-17.330466243524363</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>3.1948881789137379E-3</v>
+          </cell>
+          <cell r="F10">
+            <v>-16.342667219449119</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>3.0959752321981426E-3</v>
+          </cell>
+          <cell r="F11">
+            <v>-15.534356713593954</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -853,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -866,172 +914,192 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7.6800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>7.6800000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7">
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>1/(A8+273)</f>
         <v>3.4129692832764505E-3</v>
       </c>
-      <c r="C8" s="8">
-        <v>4.3600000000000003E-4</v>
-      </c>
-      <c r="D8" s="8">
-        <f>C8/(2*($B$4+$C$4))</f>
-        <v>9.963436928702012E-3</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="7">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8/(1000*($B$4+2*$C$4))</f>
+        <v>1.4749661705006764E-3</v>
+      </c>
+      <c r="E8" s="10">
         <f>4*D8^3</f>
-        <v>3.9562845419057792E-6</v>
-      </c>
-      <c r="F8" s="5">
+        <v>1.2835304316602754E-8</v>
+      </c>
+      <c r="F8" s="4">
         <f>LN(E8)</f>
-        <v>-12.440205220120594</v>
+        <v>-18.171066313001557</v>
+      </c>
+      <c r="G8" s="4">
+        <f>-LOG(E8,10)</f>
+        <v>7.8915938300346431</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>30</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" ref="B9:B11" si="0">1/(A9+273)</f>
         <v>3.3003300330033004E-3</v>
       </c>
-      <c r="C9" s="8">
-        <v>5.7700000000000004E-4</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="1">C9/(2*($B$4+$C$4))</f>
-        <v>1.3185557586837295E-2</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" ref="E9:E11" si="2">4*D9^3</f>
-        <v>9.1697076747109759E-6</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="C9" s="11">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" ref="D9:D11" si="1">C9/(1000*($B$4+2*$C$4))</f>
+        <v>1.9519621109607577E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f>4*D9^3</f>
+        <v>2.9749121240533421E-8</v>
+      </c>
+      <c r="F9" s="4">
         <f>LN(E9)</f>
-        <v>-11.599605150643399</v>
+        <v>-17.330466243524363</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9:G11" si="2">-LOG(E9,10)</f>
+        <v>7.5265258583732075</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7">
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>40</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>3.1948881789137379E-3</v>
       </c>
-      <c r="C10" s="8">
-        <v>8.0199999999999998E-4</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="7">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>1.8327239488117E-2</v>
-      </c>
-      <c r="E10" s="8">
+        <v>2.7131258457374825E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <f>4*D10^3</f>
+        <v>7.9885840156381598E-8</v>
+      </c>
+      <c r="F10" s="4">
+        <f>LN(E10)</f>
+        <v>-16.342667219449119</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>2.4623577807892656E-5</v>
-      </c>
-      <c r="F10" s="5">
-        <f>LN(E10)</f>
-        <v>-10.611806126568155</v>
+        <v>7.0975301929879118</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>50</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="C11" s="8">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>2.3994515539305299E-2</v>
-      </c>
-      <c r="E11" s="8">
+        <v>3.5520974289580511E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <f>4*D11^3</f>
+        <v>1.7927288162450496E-7</v>
+      </c>
+      <c r="F11" s="4">
+        <f>LN(E11)</f>
+        <v>-15.534356713593954</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
-        <v>5.5258100069859373E-5</v>
-      </c>
-      <c r="F11" s="5">
-        <f>LN(E11)</f>
-        <v>-9.8034956207129902</v>
+        <v>6.7464854006305872</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <f>8417.4*8.314/1000</f>
         <v>69.982263599999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
